--- a/biology/Botanique/Achyranthes_talbotii/Achyranthes_talbotii.xlsx
+++ b/biology/Botanique/Achyranthes_talbotii/Achyranthes_talbotii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achyranthes talbotii Hutch. &amp; Dalziel est une espèce de plantes à fleurs de la famille des Amaranthaceae et du genre Achyranthes. C'est une plante herbacée présente principalement au Cameroun, mais également au Nigeria.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique rend hommage au botaniste et anthropologue britannique Percy Amaury Talbot.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe pérenne, subligneuse, qui peut atteindre une hauteur de 50 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe pérenne, subligneuse, qui peut atteindre une hauteur de 50 cm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun, sur sept sites dans trois régions (Nord-Ouest, Sud-Ouest – particulièrement au mont Cameroun –, Littoral), également sur deux sites au sud-est du Nigeria dans l'État de Cross River[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun, sur sept sites dans trois régions (Nord-Ouest, Sud-Ouest – particulièrement au mont Cameroun –, Littoral), également sur deux sites au sud-est du Nigeria dans l'État de Cross River.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit à proximité de cours d'eau à débit rapide, partiellement immergée, souvent près des chutes d'eau, au milieu des rochers, à une altitude comprise entre 0 et 700 m[4].
-Subendémique, assez rare, elle figure actuellement sur la liste des plantes en danger, en raison de plusieurs facteurs : les infrastructures comme les barrages pourraient causer une baisse du niveau d'eau nécessaire à son développement, d'un autre côté la déforestation sans cesse croissante peut éventuellement entrainer des inondations fatales à la survie de cette espèce[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit à proximité de cours d'eau à débit rapide, partiellement immergée, souvent près des chutes d'eau, au milieu des rochers, à une altitude comprise entre 0 et 700 m.
+Subendémique, assez rare, elle figure actuellement sur la liste des plantes en danger, en raison de plusieurs facteurs : les infrastructures comme les barrages pourraient causer une baisse du niveau d'eau nécessaire à son développement, d'un autre côté la déforestation sans cesse croissante peut éventuellement entrainer des inondations fatales à la survie de cette espèce.
 </t>
         </is>
       </c>
